--- a/RBMC p214.xlsx
+++ b/RBMC p214.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4264522ea65d2ce8/Dokumenter/NTNU/Master/Python Code/Hardcode Relrad/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4264522ea65d2ce8/Dokumenter/NTNU/Master/Python Code/Git Repo/Simple-System-for-Power-System-Reliability-Calculations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1053" documentId="11_AD4D1D646341095ACB70008C251E688C5BDEDD88" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D671D799-2B05-4FE7-932C-528790593269}"/>
+  <xr:revisionPtr revIDLastSave="1054" documentId="11_AD4D1D646341095ACB70008C251E688C5BDEDD88" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF00413F-109D-40E5-A638-52C6FD2171D4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus Data" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
   <si>
     <t>S1</t>
   </si>
@@ -122,22 +122,13 @@
     <t>Nr Transformers</t>
   </si>
   <si>
-    <t>Nr Protection</t>
-  </si>
-  <si>
     <t>Fuse/breaker direction</t>
   </si>
   <si>
     <t>Disconnector direction</t>
   </si>
   <si>
-    <t>Breaker Type</t>
-  </si>
-  <si>
     <t>Transformer Type</t>
-  </si>
-  <si>
-    <t>Nr Breaker</t>
   </si>
   <si>
     <t>r</t>
@@ -507,7 +498,7 @@
   <dimension ref="A2:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,22 +534,22 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -569,15 +560,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4E8D12-5BBA-4420-83A4-3BE8673EEFAA}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24:J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -588,10 +579,10 @@
         <v>20</v>
       </c>
       <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
         <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>32</v>
       </c>
       <c r="G1" t="s">
         <v>28</v>
@@ -600,21 +591,12 @@
         <v>29</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -632,7 +614,7 @@
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -640,14 +622,8 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -664,10 +640,10 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -675,14 +651,8 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -699,10 +669,10 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -710,14 +680,8 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -734,10 +698,10 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -745,16 +709,10 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -763,7 +721,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -772,7 +730,7 @@
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -780,16 +738,10 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -798,7 +750,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -807,7 +759,7 @@
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -815,16 +767,10 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -833,7 +779,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
@@ -842,18 +788,12 @@
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
         <v>0</v>
       </c>
     </row>
@@ -894,7 +834,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -911,7 +851,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -928,7 +868,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -986,7 +926,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -1026,13 +966,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1047,7 +987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1088D9-478C-4CD0-AF4E-3387BCCAE5CC}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
@@ -1061,7 +1001,7 @@
         <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
         <v>15</v>
@@ -1069,7 +1009,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -1083,7 +1023,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>0.25</v>

--- a/RBMC p214.xlsx
+++ b/RBMC p214.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4264522ea65d2ce8/Dokumenter/NTNU/Master/Python Code/Git Repo/Simple-System-for-Power-System-Reliability-Calculations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1054" documentId="11_AD4D1D646341095ACB70008C251E688C5BDEDD88" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF00413F-109D-40E5-A638-52C6FD2171D4}"/>
+  <xr:revisionPtr revIDLastSave="1055" documentId="11_AD4D1D646341095ACB70008C251E688C5BDEDD88" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F375397-1E4F-4EDD-9B82-F8B62B979E5C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3630" yWindow="3360" windowWidth="22515" windowHeight="17625" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus Data" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="45">
   <si>
     <t>S1</t>
   </si>
@@ -162,9 +162,6 @@
   </si>
   <si>
     <t>BB</t>
-  </si>
-  <si>
-    <t>BS</t>
   </si>
   <si>
     <t>D</t>
@@ -226,10 +223,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -562,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4E8D12-5BBA-4420-83A4-3BE8673EEFAA}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,7 +633,7 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
         <v>34</v>
@@ -669,7 +662,7 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
         <v>34</v>
@@ -698,7 +691,7 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
         <v>34</v>
@@ -945,15 +938,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E048BFAE-5E89-49CD-86BC-5447EDAEAF07}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="B1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>26</v>
       </c>
@@ -962,20 +955,6 @@
       </c>
       <c r="D1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/RBMC p214.xlsx
+++ b/RBMC p214.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4264522ea65d2ce8/Dokumenter/NTNU/Master/Python Code/Git Repo/Simple-System-for-Power-System-Reliability-Calculations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1055" documentId="11_AD4D1D646341095ACB70008C251E688C5BDEDD88" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F375397-1E4F-4EDD-9B82-F8B62B979E5C}"/>
+  <xr:revisionPtr revIDLastSave="1096" documentId="11_AD4D1D646341095ACB70008C251E688C5BDEDD88" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{622339AE-4D18-421A-B209-2AEA40A166ED}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="3360" windowWidth="22515" windowHeight="17625" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus Data" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="Generation Data" sheetId="5" r:id="rId4"/>
     <sheet name="Backup Feeders" sheetId="6" r:id="rId5"/>
     <sheet name="Component Data" sheetId="4" r:id="rId6"/>
+    <sheet name="Weekly Load Factor" sheetId="7" r:id="rId7"/>
+    <sheet name="Daily Load Factor" sheetId="8" r:id="rId8"/>
+    <sheet name="Hourly Load Factor" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="55">
   <si>
     <t>S1</t>
   </si>
@@ -98,12 +101,6 @@
     <t>Lim MW</t>
   </si>
   <si>
-    <t>Lim MVAR</t>
-  </si>
-  <si>
-    <t>inf</t>
-  </si>
-  <si>
     <t>Main Feeder</t>
   </si>
   <si>
@@ -165,6 +162,42 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>E cap</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Load Factor</t>
+  </si>
+  <si>
+    <t>Day of week</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Winter Wkdy</t>
+  </si>
+  <si>
+    <t>Winter Wknd</t>
+  </si>
+  <si>
+    <t>Summer Wkdy</t>
+  </si>
+  <si>
+    <t>Summer Wknd</t>
+  </si>
+  <si>
+    <t>Spring/Fall Wkdy</t>
+  </si>
+  <si>
+    <t>Spring/Fall Wknd</t>
   </si>
 </sst>
 </file>
@@ -223,6 +256,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -527,22 +564,22 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -556,7 +593,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,24 +609,24 @@
         <v>20</v>
       </c>
       <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
         <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -607,7 +644,7 @@
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -633,10 +670,10 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -662,10 +699,10 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -691,10 +728,10 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -705,7 +742,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -714,7 +751,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -723,7 +760,7 @@
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -734,7 +771,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -743,7 +780,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -752,7 +789,7 @@
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -763,7 +800,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -772,7 +809,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
@@ -781,7 +818,7 @@
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -802,7 +839,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H4"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,7 +864,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -839,12 +876,12 @@
         <v>0.86680000000000001</v>
       </c>
       <c r="E2">
-        <v>210</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -856,12 +893,12 @@
         <v>0.86680000000000001</v>
       </c>
       <c r="E3">
-        <v>210</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -873,7 +910,7 @@
         <v>0.86680000000000001</v>
       </c>
       <c r="E4">
-        <v>210</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -884,10 +921,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF1C9F0-4343-4AD1-924D-ED1403BEA6CF}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,38 +934,52 @@
         <v>21</v>
       </c>
       <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
         <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -940,18 +991,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E048BFAE-5E89-49CD-86BC-5447EDAEAF07}">
   <dimension ref="B1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
         <v>15</v>
@@ -980,7 +1031,7 @@
         <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
         <v>15</v>
@@ -988,7 +1039,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -1002,7 +1053,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>0.25</v>
@@ -1012,6 +1063,1114 @@
       </c>
       <c r="D3">
         <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DE4B62-EB38-481C-88C2-648B4DB196A3}">
+  <dimension ref="A1:B53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>86.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>87.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>84.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>83.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>72.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>70.400000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>72.099999999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>75.400000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>83.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>85.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>81.099999999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>88.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>89.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>86.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>81.599999999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>80.099999999999994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>72.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>77.599999999999994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>72.900000000000006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>72.400000000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>72.400000000000006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>74.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>74.400000000000006</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>88.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>90.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>94.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>95.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13E983E-B445-4CD2-A7FA-CABC4E090BF7}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541DCA8C-0F36-4F77-94CE-BD2A5E1680C1}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>67</v>
+      </c>
+      <c r="C2">
+        <v>78</v>
+      </c>
+      <c r="D2">
+        <v>64</v>
+      </c>
+      <c r="E2">
+        <v>74</v>
+      </c>
+      <c r="F2">
+        <v>63</v>
+      </c>
+      <c r="G2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>63</v>
+      </c>
+      <c r="C3">
+        <v>72</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="E3">
+        <v>70</v>
+      </c>
+      <c r="F3">
+        <v>62</v>
+      </c>
+      <c r="G3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>60</v>
+      </c>
+      <c r="C4">
+        <v>68</v>
+      </c>
+      <c r="D4">
+        <v>58</v>
+      </c>
+      <c r="E4">
+        <v>66</v>
+      </c>
+      <c r="F4">
+        <v>60</v>
+      </c>
+      <c r="G4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>59</v>
+      </c>
+      <c r="C5">
+        <v>66</v>
+      </c>
+      <c r="D5">
+        <v>56</v>
+      </c>
+      <c r="E5">
+        <v>65</v>
+      </c>
+      <c r="F5">
+        <v>58</v>
+      </c>
+      <c r="G5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>59</v>
+      </c>
+      <c r="C6">
+        <v>64</v>
+      </c>
+      <c r="D6">
+        <v>56</v>
+      </c>
+      <c r="E6">
+        <v>64</v>
+      </c>
+      <c r="F6">
+        <v>59</v>
+      </c>
+      <c r="G6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>60</v>
+      </c>
+      <c r="C7">
+        <v>65</v>
+      </c>
+      <c r="D7">
+        <v>58</v>
+      </c>
+      <c r="E7">
+        <v>62</v>
+      </c>
+      <c r="F7">
+        <v>65</v>
+      </c>
+      <c r="G7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>74</v>
+      </c>
+      <c r="C8">
+        <v>66</v>
+      </c>
+      <c r="D8">
+        <v>64</v>
+      </c>
+      <c r="E8">
+        <v>62</v>
+      </c>
+      <c r="F8">
+        <v>72</v>
+      </c>
+      <c r="G8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>86</v>
+      </c>
+      <c r="C9">
+        <v>70</v>
+      </c>
+      <c r="D9">
+        <v>76</v>
+      </c>
+      <c r="E9">
+        <v>66</v>
+      </c>
+      <c r="F9">
+        <v>85</v>
+      </c>
+      <c r="G9">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>95</v>
+      </c>
+      <c r="C10">
+        <v>80</v>
+      </c>
+      <c r="D10">
+        <v>87</v>
+      </c>
+      <c r="E10">
+        <v>81</v>
+      </c>
+      <c r="F10">
+        <v>95</v>
+      </c>
+      <c r="G10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>96</v>
+      </c>
+      <c r="C11">
+        <v>88</v>
+      </c>
+      <c r="D11">
+        <v>95</v>
+      </c>
+      <c r="E11">
+        <v>86</v>
+      </c>
+      <c r="F11">
+        <v>99</v>
+      </c>
+      <c r="G11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>96</v>
+      </c>
+      <c r="C12">
+        <v>90</v>
+      </c>
+      <c r="D12">
+        <v>99</v>
+      </c>
+      <c r="E12">
+        <v>91</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>95</v>
+      </c>
+      <c r="C13">
+        <v>91</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>93</v>
+      </c>
+      <c r="F13">
+        <v>99</v>
+      </c>
+      <c r="G13">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>95</v>
+      </c>
+      <c r="C14">
+        <v>90</v>
+      </c>
+      <c r="D14">
+        <v>99</v>
+      </c>
+      <c r="E14">
+        <v>93</v>
+      </c>
+      <c r="F14">
+        <v>93</v>
+      </c>
+      <c r="G14">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>95</v>
+      </c>
+      <c r="C15">
+        <v>88</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>92</v>
+      </c>
+      <c r="F15">
+        <v>92</v>
+      </c>
+      <c r="G15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>93</v>
+      </c>
+      <c r="C16">
+        <v>87</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16">
+        <v>91</v>
+      </c>
+      <c r="F16">
+        <v>90</v>
+      </c>
+      <c r="G16">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>94</v>
+      </c>
+      <c r="C17">
+        <v>87</v>
+      </c>
+      <c r="D17">
+        <v>97</v>
+      </c>
+      <c r="E17">
+        <v>91</v>
+      </c>
+      <c r="F17">
+        <v>88</v>
+      </c>
+      <c r="G17">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>99</v>
+      </c>
+      <c r="C18">
+        <v>91</v>
+      </c>
+      <c r="D18">
+        <v>96</v>
+      </c>
+      <c r="E18">
+        <v>92</v>
+      </c>
+      <c r="F18">
+        <v>90</v>
+      </c>
+      <c r="G18">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>96</v>
+      </c>
+      <c r="E19">
+        <v>94</v>
+      </c>
+      <c r="F19">
+        <v>92</v>
+      </c>
+      <c r="G19">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <v>99</v>
+      </c>
+      <c r="D20">
+        <v>93</v>
+      </c>
+      <c r="E20">
+        <v>95</v>
+      </c>
+      <c r="F20">
+        <v>96</v>
+      </c>
+      <c r="G20">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>96</v>
+      </c>
+      <c r="C21">
+        <v>97</v>
+      </c>
+      <c r="D21">
+        <v>92</v>
+      </c>
+      <c r="E21">
+        <v>95</v>
+      </c>
+      <c r="F21">
+        <v>98</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>91</v>
+      </c>
+      <c r="C22">
+        <v>94</v>
+      </c>
+      <c r="D22">
+        <v>92</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22">
+        <v>96</v>
+      </c>
+      <c r="G22">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>83</v>
+      </c>
+      <c r="C23">
+        <v>92</v>
+      </c>
+      <c r="D23">
+        <v>93</v>
+      </c>
+      <c r="E23">
+        <v>93</v>
+      </c>
+      <c r="F23">
+        <v>90</v>
+      </c>
+      <c r="G23">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>73</v>
+      </c>
+      <c r="C24">
+        <v>87</v>
+      </c>
+      <c r="D24">
+        <v>87</v>
+      </c>
+      <c r="E24">
+        <v>88</v>
+      </c>
+      <c r="F24">
+        <v>80</v>
+      </c>
+      <c r="G24">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>63</v>
+      </c>
+      <c r="C25">
+        <v>81</v>
+      </c>
+      <c r="D25">
+        <v>72</v>
+      </c>
+      <c r="E25">
+        <v>80</v>
+      </c>
+      <c r="F25">
+        <v>70</v>
+      </c>
+      <c r="G25">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/RBMC p214.xlsx
+++ b/RBMC p214.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4264522ea65d2ce8/Dokumenter/NTNU/Master/Python Code/Git Repo/Simple-System-for-Power-System-Reliability-Calculations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1096" documentId="11_AD4D1D646341095ACB70008C251E688C5BDEDD88" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{622339AE-4D18-421A-B209-2AEA40A166ED}"/>
+  <xr:revisionPtr revIDLastSave="1100" documentId="11_AD4D1D646341095ACB70008C251E688C5BDEDD88" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD79B944-D6CF-4F10-9D24-7E55D246812E}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus Data" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
   <si>
     <t>S1</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>Spring/Fall Wknd</t>
+  </si>
+  <si>
+    <t>BS</t>
   </si>
 </sst>
 </file>
@@ -923,7 +926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF1C9F0-4343-4AD1-924D-ED1403BEA6CF}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -989,15 +992,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E048BFAE-5E89-49CD-86BC-5447EDAEAF07}">
-  <dimension ref="B1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>24</v>
       </c>
@@ -1006,6 +1009,20 @@
       </c>
       <c r="D1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1018,7 +1035,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
